--- a/graph_generation/results_pathCompare/gpt3.5/level_8/k_1.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_8/k_1.xlsx
@@ -52,23 +52,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 4 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4 0
- L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 4 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 2 0 0 5 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -96,23 +96,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 5 0 0 1 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 4 0 0 2 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -140,23 +140,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 5 0 0 3 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0
  K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -184,23 +184,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 5 0 0 2 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 5 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 2 0 5 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -228,66 +228,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 3 0 0 2 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 2 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: No possible path from A to P
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 2 0 0 4 0 3 0 0 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 1 0 0 5 0
- K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 2 0 0 2 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -315,23 +272,67 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 4 0 0 1 0 0 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 4 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 1 0 0 3 0
+ L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Solution: No possible path from A to P
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -360,21 +361,21 @@
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- F 0 5 0 0 0 0 0 0 0 3 0 0 0 0 0
- G 0 0 3 0 0 4 0 1 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- K 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ B 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 2 0 0 0 3 0 0 5 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 5 0 0 0 0 0 0 3 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 5 0 5 0 0 4 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -402,23 +403,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 4 0 0 1 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0
+ C 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 2 0 0 3 0 4 0 0 5 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
  L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 4
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -446,23 +447,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
- F 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 2 0 4 0 0 3 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 3 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -473,138 +474,131 @@
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; B -&gt; F -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P
-   Cost = 2 + 4 + 1 + 5 + 4 + 4 + 2 = 22
-2. A -&gt; B -&gt; F -&gt; H -&gt; I -&gt; N -&gt; P
-   Cost = 2 + 4 + 1 + 5 + 5 + 1 = 18
-3. A -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P
-   Cost = 3 + 5 + 2 + 4 + 2 = 16
-4. A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P
-   Cost = 3 + 5 + 1 + 5 + 4 + 4 + 2 = 24
-5. A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P
-   Cost = 3 + 5 + 1 + 5 + 5 + 1 = 20
-The least cost path from node A to node P is path 3: A -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P.</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; P (cost = 17)
+2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; P (cost = 3)
+3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P (cost = 12)
+4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; N -&gt; P (cost = 6)
+5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 7)
+6. A -&gt; B -&gt; C -&gt; D -&gt; P (cost = 3)
+7. A -&gt; E -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P (cost = 9)
+8. A -&gt; E -&gt; D -&gt; H -&gt; I -&gt; N -&gt; P (cost = 3)
+9. A -&gt; E -&gt; D -&gt; H -&gt; P (cost = 4)
+10. A -&gt; E -&gt; D -&gt; P (cost = 2)
+11. A -&gt; E -&gt; P (cost = 2)
+12. A -&gt; P (cost = 0)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; P with a cost of 2.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 2 + 5 + 3 = 45
+2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 2 + 4 + 5 + 3 = 44
+3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 5 + 3 = 38
+4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 2 + 3 = 35
+5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 5 + 3 = 38
+6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P
+   Total cost: 4 + 2 + 4 + 4 + 4 + 1 + 4 + 5 + 2 + 2 + 3 = 35
+Therefore, the least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P, with a total cost of 35.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P
+   Cost: 4 + 3 + 2 + 2 + 1 + 2 + 2 = 16
+2. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; J -&gt; M -&gt; O -&gt; P
+   Cost: 4 + 1 + 2 + 4 + 4 + 2 + 2 = 19
+3. A -&gt; B -&gt; D -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P
+   Cost: 4 + 2 + 2 + 1 + 2 + 2 = 13
+4. A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; M -&gt; O -&gt; P
+   Cost: 4 + 4 + 4 + 2 + 2 + 2 = 18
+5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P
+   Cost: 4 + 3 + 2 + 2 + 1 + 4 + 1 + 1 = 18
+6. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P
+   Cost: 4 + 1 + 4 + 4 + 4 + 4 + 1 + 1 = 23
+7. A -&gt; B -&gt; D -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P
+   Cost: 4 + 2 + 2 + 1 + 4 + 1 + 1 = 15
+8. A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P
+   Cost: 4 + 4 + 4 + 4 + 4 + 1 + 1 = 22
+The least cost path from node A to node P is A -&gt; B -&gt; D -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P with a cost of 13.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A-B-D-H-P (cost = 3+5+3 = 11)
+2. A-B-F-G-O-P (cost = 5+2+3+5 = 15)
+3. A-C-G-O-P (cost = 5+5 = 10)
+4. A-D-H-P (cost = 5+3 = 8)
+5. A-D-H-P (cost = 1+5+3 = 9)
+6. A-D-H-P (cost = 1+5+3+2 = 11)
+7. A-E-J-K-L-P (cost = 4+5+2+4+2 = 17)
+8. A-E-J-K-P (cost = 4+5+2+2 = 13)
+9. A-E-J-K-P (cost = 4+5+2+2+1 = 14)
+10. A-E-J-K-P (cost = 4+5+2+2+1+5 = 19)
+11. A-E-J-N-P (cost = 4+5+2+5 = 16)
+12. A-E-J-N-P (cost = 4+5+2+5+1 = 17)
+13. A-O-N-P (cost = 4+3+5 = 12)
+14. A-O-N-P (cost = 4+3+5+2 = 14)
+The least cost path from node A to node P is A-D-H-P with a cost of 8.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P: 
+1. A - B - D - H - I - N - P
+Cost: 2 + 3 + 5 + 1 + 4 = 15
+2. A - B - D - H - I - N - O - P
+Cost: 2 + 3 + 5 + 1 + 4 + 5 = 20
+3. A - B - D - H - I - J - N - P
+Cost: 2 + 3 + 5 + 1 + 2 + 4 = 17
+4. A - B - D - H - I - J - N - O - P
+Cost: 2 + 3 + 5 + 1 + 2 + 4 + 5 = 22
+5. A - B - D - H - I - J - N - O - K - L - P
+Cost: 2 + 3 + 5 + 1 + 2 + 4 + 5 + 4 + 3 + 5 = 34
+Therefore, the least cost path from node A to node P is A - B - D - H - I - N - P with a cost of 15.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P (cost = 3 + 4 + 1 + 4 + 5 = 17)
+2. A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P (cost = 3 + 4 + 1 + 3 + 5 = 16)
+3. A -&gt; B -&gt; F -&gt; L -&gt; P (cost = 3 + 4 + 4 + 5 = 16)
+The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P with a cost of 16.</t>
+  </si>
+  <si>
+    <t>Possible path 1: A - B - F - G - N - O - P (Cost: 4 + 4 + 3 + 3 + 1 + 3 = 18)
+Possible path 2: A - B - F - G - K - L - O - P (Cost: 4 + 4 + 3 + 3 + 4 + 2 + 3 = 23)
+Possible path 3: A - B - F - G - K - L - D - H - I - L - O - P (Cost: 4 + 4 + 3 + 3 + 4 + 2 + 3 + 2 + 0 + 2 + 3 = 30)
+Possible path 4: A - B - F - G - K - L - D - H - I - J - N - O - P (Cost: 4 + 4 + 3 + 3 + 4 + 2 + 3 + 2 + 0 + 5 + 1 + 3 = 35)
+Possible path 5: A - B - F - G - K - L - D - H - E - I - J - N - O - P (Cost: 4 + 4 + 3 + 3 + 4 + 2 + 3 + 2 + 0 + 1 + 5 + 1 + 3 = 34)
+The least cost path from node A to node P is A - B - F - G - N - O - P with a cost of 18.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to O:
+1. A - B - E - F - G - J - N - O (Total cost: 5 + 1 + 5 + 3 + 5 + 1 = 20)
+2. A - B - E - F - G - J - N - M - O (Total cost: 5 + 1 + 5 + 3 + 5 + 4 + 2 = 25)
+3. A - B - E - F - G - J - N - M - D - O (Total cost: 5 + 1 + 5 + 3 + 5 + 4 + 3 + 5 = 31)
+4. A - B - E - F - G - J - N - M - D - H - O (Total cost: 5 + 1 + 5 + 3 + 5 + 4 + 3 + 5 + 3 = 39)
+The least cost path from node A to node O is A - B - E - F - G - J - N - O with a total cost of 20.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A - C - J - F - H - O - P (cost: 1+3+3+4+1+1 = 13)
+2. A - C - J - F - H - O - M - N - P (cost: 1+3+3+4+1+1+3+3 = 19)
+3. A - C - J - F - H - O - N - P (cost: 1+3+3+4+1+5+2 = 19)
+4. A - C - J - F - H - O - N - K - L - P (cost: 1+3+3+4+1+5+2+1+3 = 23)
+5. A - C - J - F - H - O - N - K - L - P (cost: 1+3+3+4+1+5+2+1+3 = 23)
+6. A - C - J - F - H - O - P (cost: 1+3+3+4+1 = 12)
+The least cost path from node A to node P is A - C - J - F - H - O - P with a cost of 12.</t>
   </si>
   <si>
     <t>Possible paths from node A to node P:
-1) A -&gt; B -&gt; E -&gt; I -&gt; J -&gt; M -&gt; N -&gt; P    (cost = 5+2+1+2+1+4+4 = 19)
-2) A -&gt; E -&gt; I -&gt; J -&gt; M -&gt; N -&gt; P    (cost = 2+1+2+1+4+4 = 14)
-The least cost path from node A to node P is A -&gt; E -&gt; I -&gt; J -&gt; M -&gt; N -&gt; P, with a total cost of 14.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 4+3+3+5+5+2+3+4+1+5+2+2 = 39)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 4+3+3+5+5+2+3+4+1+5+2 = 37)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 4+3+3+5+5+2+3+4+1+1 = 31)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 4+3+3+5+5+2+3+4+5 = 34)
-5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P (cost: 4+3+3+5+5+2+3+4 = 29)
-6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O -&gt; P (cost: 4+3+3+5+5+2+3+2+4 = 31)
-7. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 4+3+3+5+5+2+3+2 = 27)
-8. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; M -&gt; P (cost: 4+3+3+5+5+2+3+2+3 = 30)
-9. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 3+3+5+5+2+4+1+5+2+2+3+4 = 41)
-10. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 3+3+5+5+2+4+1+5+2+2+4 = 36)
-11. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 3+3+5+5+2+4+1+1+5 = 29)
-12. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 3+3+5+5+2+4+1+5 = 28)
-13. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P (cost: 3+3+5+5+2+4+1 = 23)
-14. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O -&gt; P (cost: 3+3+5+5+2+4+2+4 = 28)
-15. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 3+3+5+5+2+4+2 = 24)
-16. A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; M -&gt; P (cost: 3+3+5+5+2+4+2+3 = 27)
-The least cost path from node A to node P is A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P with a cost of 24.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1) A - B - C - F - P (total cost = 12)
-2) A - B - F - P (total cost = 7)
-3) A - B - C - G - P (total cost = 12)
-4) A - B - F - G - P (total cost = 9)
-5) A - B - F - G - H - P (total cost = 13)
-6) A - B - C - G - H - P (total cost = 14)
-The least cost path from node A to node P is A - B - F - P with a total cost of 7.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; P (Total cost: 2 + 4 + 5 + 3 + 5 + 1 = 20)
-2) A -&gt; B -&gt; F -&gt; E -&gt; D -&gt; P (Total cost: 2 + 5 + 4 + 3 + 1 = 15)
-3) A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Total cost: 2 + 5 + 2 + 3 + 5 + 1 = 18)
-4) A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (Total cost: 2 + 5 + 2 + 3 + 1 = 13)
-5) A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; O -&gt; P (Total cost: 2 + 5 + 2 + 3 + 2 + 1 = 15)
-6) A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; E -&gt; D -&gt; P (Total cost: 2 + 4 + 2 + 5 + 4 + 3 + 1 = 21)
-7) A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; E -&gt; P (Total cost: 2 + 4 + 2 + 5 + 4 + 3 = 20)
-8) A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; P (Total cost: 2 + 4 + 2 + 5 + 4 = 17)
-9) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; O -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 1 = 19)
-10) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 = 16)
-11) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 1 = 19)
-12) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; N -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 2 + 1 = 21)
-13) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; N -&gt; L -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 2 + 2 + 2 = 24)
-14) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; N -&gt; L -&gt; K -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 2 + 2 + 4 + 5 = 31)
-15) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; N -&gt; P (Total cost: 2 + 4 + 2 + 5 + 3 + 2 + 4 + 2 + 1 = 25)
-16) A -&gt; E -&gt; D -&gt; P (Total cost: 4 + 5 + 1 = 10)
-17) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; P (Total cost: 4 + 5 + 3 + 5 + 1 = 18)
-18) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 5 + 1 = 31)
-19) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 1 = 28)
-20) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; N -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 2 + 1 = 31)
-21) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; N -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 4 + 2 + 1 = 39)
-22) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; L -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 4 + 2 + 2 + 2 = 43)
-23) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; L -&gt; K -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 4 + 2 + 2 + 4 + 5 = 47)
-24) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; N -&gt; L -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 4 + 2 + 4 + 2 + 2 = 44)
-25) A -&gt; E -&gt; G -&gt; F -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; M -&gt; N -&gt; L -&gt; K -&gt; P (Total cost: 4 + 5 + 2 + 5 + 4 + 2 + 3 + 2 + 4 + 2 + 4 + 2 + 4 + 5 = 49)
-The least cost path from node A to node P is A -&gt; E -&gt; D -&gt; P, with a total cost of 10.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node O are:
-1) A -&gt; D -&gt; H -&gt; I -&gt; K -&gt; O (Total cost = 4 + 1 + 3 + 2 + 2 = 12)
-2) A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O (Total cost = 4 + 1 + 3 + 2 + 5 = 15)
-3) A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; F -&gt; K -&gt; O (Total cost = 4 + 1 + 3 + 2 + 4 + 4 = 18)
-4) A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; C -&gt; O (Total cost = 4 + 1 + 3 + 2 + 5 + 0 = 15)
-5) A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; O (Total cost = 4 + 1 + 3 + 2 + 4 + 5 = 19)
-6) A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; M -&gt; O (Total cost = 4 + 1 + 3 + 2 + 5 + 1 = 16)
-7) A -&gt; D -&gt; H -&gt; I -&gt; L -&gt; M -&gt; O (Total cost = 4 + 1 + 3 + 2 + 4 = 14)
-The least cost path from node A to node O is A -&gt; D -&gt; H -&gt; I -&gt; K -&gt; O, with a total cost of 12.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 1 + 4 + 5 + 3 + 5 = 18)
-2. A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P (Cost = 1 + 4 + 4 + 3 + 2 = 14)
-3. A -&gt; B -&gt; F -&gt; K -&gt; P (Cost = 1 + 4 + 4 + 1 + 0 = 10)
-4. A -&gt; B -&gt; F -&gt; L -&gt; P (Cost = 1 + 4 + 5 + 1 + 1 = 12)
-5. A -&gt; B -&gt; G -&gt; H -&gt; D -&gt; P (Cost = 1 + 4 + 2 + 1 + 1 = 9)
-6. A -&gt; B -&gt; G -&gt; H -&gt; P (Cost = 1 + 4 + 2 + 1 + 0 = 8)
-The least cost path from node A to node P is A -&gt; B -&gt; G -&gt; H -&gt; P with a cost of 8.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to O:
-1) A - B - F - H - I - N - O (cost: 5+5+1+1+5 = 17)
-2) A - B - F - G - N - O (cost: 5+5+4+5 = 19)
-3) A - B - F - G - M - O (cost: 5+5+4+4 = 18)
-4) A - B - F - G - K - O (cost: 5+5+4+2 = 16)
-5) A - B - F - G - K - L - O (cost: 5+5+4+2+5 = 21)
-6) A - B - D - G - N - O (cost: 3+3+5 = 11)
-7) A - E - F - G - N - O (cost: 1+4+5 = 10)
-8) A - E - F - G - K - O (cost: 1+4+4+2 = 11)
-9) A - E - F - G - K - L - O (cost: 1+4+4+2+5 = 16)
-10) A - E - F - G - M - O (cost: 1+4+4+4 = 13)
-The least cost path from node A to node O is A - E - F - G - N - O with a cost of 10.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1) A -&gt; B -&gt; F -&gt; G -&gt; P (cost 5+2+5+4 = 16)
-2) A -&gt; B -&gt; G -&gt; P (cost 5+5+4 = 14)
-3) A -&gt; E -&gt; F -&gt; G -&gt; P (cost 3+2+5+4 = 14)
-4) A -&gt; E -&gt; G -&gt; P (cost 3+5+4 = 12)
-5) A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost 3+2+5+3+3 = 16)
-The least cost path from node A to node P is A -&gt; E -&gt; G -&gt; P, with a total cost of 12.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P (cost: 7)
-2. A -&gt; E -&gt; I -&gt; N -&gt; O -&gt; P (cost: 7)
-3. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P (cost: 8)
-4. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P (cost: 8)
-5. A -&gt; E -&gt; I -&gt; N -&gt; P (cost: 7)
-6. A -&gt; E -&gt; I -&gt; M -&gt; P (cost: 7)
-7. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P (cost: 8)
-8. A -&gt; B -&gt; C -&gt; G -&gt; P (cost: 8)
-The least cost path from node A to node P is path 1: A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P with a cost of 7.</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 16)
+2. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 14)
+3. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost: 14)
+4. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost: 15)
+5. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 12)
+6. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost: 12)
+7. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost: 13)
+The least cost path from node A to node P is: A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 12)</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
